--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>783942.079467245</v>
+        <v>782054.497950843</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>289874.7252848769</v>
+        <v>476699.8759439664</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>354.1058029229724</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>316.3625237039589</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498675</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>80.9734750049406</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>22.96475740885543</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>118.7739457490152</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>111.9273983130129</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>40.43587592056009</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>169.0167291702126</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>166.3762350119635</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>136.0838294374588</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>38.96794081168471</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>20.48699093885593</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527404</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.6054364760463</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,13 +1579,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>151.8528262840324</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>150.0744490309316</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>250.7797515539672</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>101.2386603312937</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,13 +2008,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>36.41340127570007</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2138,7 +2138,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>124.6501923679396</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>251.0978437505404</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H24" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>77.22206678602456</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,13 +2482,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>155.4064613638411</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2530,19 +2530,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,10 +2570,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>137.4719632967737</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -2731,7 +2731,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2770,16 +2770,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>135.4806324310984</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965516</v>
+        <v>93.41221638965537</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801197</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437405</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>61.80299520713054</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.215988835715</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.7610957752358</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>109.6476569337762</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329079</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539618</v>
       </c>
       <c r="T34" t="n">
         <v>153.4156709287486</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
         <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415213</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1210.087414675782</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="C2" t="n">
-        <v>1210.087414675782</v>
+        <v>1156.784139101298</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>1156.784139101298</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>1156.784139101298</v>
       </c>
       <c r="F2" t="n">
         <v>799.1015098861748</v>
@@ -4322,58 +4322,58 @@
         <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>1596.687254739904</v>
+        <v>2289.351746278602</v>
       </c>
       <c r="X2" t="n">
-        <v>1596.687254739904</v>
+        <v>1915.885988017522</v>
       </c>
       <c r="Y2" t="n">
-        <v>1596.687254739904</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="3">
@@ -4404,46 +4404,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>285.8510101265796</v>
+        <v>2260.816137982096</v>
       </c>
       <c r="C4" t="n">
-        <v>285.8510101265796</v>
+        <v>2260.816137982096</v>
       </c>
       <c r="D4" t="n">
-        <v>135.7343707142439</v>
+        <v>2260.816137982096</v>
       </c>
       <c r="E4" t="n">
-        <v>135.7343707142439</v>
+        <v>2260.816137982096</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>2260.816137982096</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2091.816337720429</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2091.816337720429</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245969</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245969</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245969</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="X4" t="n">
-        <v>285.8510101265796</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="Y4" t="n">
-        <v>285.8510101265796</v>
+        <v>2442.464602812336</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1799.76938401301</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C5" t="n">
-        <v>1430.806867072598</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D5" t="n">
-        <v>1072.541168465848</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>1072.541168465848</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2584.09111292427</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2330.329327562361</v>
       </c>
       <c r="V5" t="n">
-        <v>2189.908715988822</v>
+        <v>1999.266440218791</v>
       </c>
       <c r="W5" t="n">
-        <v>2189.908715988822</v>
+        <v>1646.497784948677</v>
       </c>
       <c r="X5" t="n">
-        <v>2189.908715988822</v>
+        <v>1273.032026687597</v>
       </c>
       <c r="Y5" t="n">
-        <v>1799.76938401301</v>
+        <v>882.8926947117852</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>400.4487670819043</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>252.5356734995112</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1405.321187657107</v>
+        <v>1562.681172365833</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D8" t="n">
         <v>1036.358670716696</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2109.849833261758</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V8" t="n">
-        <v>1778.786945918187</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W8" t="n">
-        <v>1778.786945918187</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="X8" t="n">
-        <v>1405.321187657107</v>
+        <v>1562.681172365833</v>
       </c>
       <c r="Y8" t="n">
-        <v>1405.321187657107</v>
+        <v>1562.681172365833</v>
       </c>
     </row>
     <row r="9">
@@ -4896,10 +4896,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2291.509718890065</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2627.754532504894</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>285.8510101265796</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="C10" t="n">
-        <v>285.8510101265796</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="D10" t="n">
-        <v>246.4894537511405</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511405</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>74.63691206163307</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245969</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245969</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W10" t="n">
-        <v>513.8405610245969</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X10" t="n">
-        <v>285.8510101265796</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="Y10" t="n">
-        <v>285.8510101265796</v>
+        <v>210.9658229629848</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5057,34 +5057,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L12" t="n">
-        <v>836.4717212750119</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M12" t="n">
-        <v>1156.807040804714</v>
+        <v>1604.839867667474</v>
       </c>
       <c r="N12" t="n">
-        <v>1785.124911043099</v>
+        <v>1949.360523305092</v>
       </c>
       <c r="O12" t="n">
-        <v>2033.878325127062</v>
+        <v>2198.113937389054</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>542.4381409926459</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="C13" t="n">
-        <v>542.4381409926459</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D13" t="n">
-        <v>542.4381409926459</v>
+        <v>503.5547239186419</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102528</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5215,7 +5215,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
         <v>1498.916270557902</v>
@@ -5227,22 +5227,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609665</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>986.0022165609665</v>
+        <v>1345.529577341708</v>
       </c>
       <c r="W13" t="n">
-        <v>696.5850465240059</v>
+        <v>1056.112407304747</v>
       </c>
       <c r="X13" t="n">
-        <v>696.5850465240059</v>
+        <v>1056.112407304747</v>
       </c>
       <c r="Y13" t="n">
-        <v>696.5850465240059</v>
+        <v>835.3198281612173</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
@@ -5309,19 +5309,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5361,13 +5361,13 @@
         <v>222.5746515181233</v>
       </c>
       <c r="L15" t="n">
-        <v>452.5377573864724</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="M15" t="n">
-        <v>1220.905903778934</v>
+        <v>990.9427979105849</v>
       </c>
       <c r="N15" t="n">
-        <v>2025.317482043085</v>
+        <v>1795.354376174736</v>
       </c>
       <c r="O15" t="n">
         <v>2371.535469249458</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>542.136771952925</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C16" t="n">
-        <v>542.136771952925</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="E16" t="n">
         <v>244.1070389581962</v>
@@ -5440,46 +5440,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1147.405907916959</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1147.405907916959</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352015</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="W16" t="n">
-        <v>990.9189019944724</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="X16" t="n">
-        <v>762.9293510964551</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="Y16" t="n">
-        <v>542.136771952925</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="17">
@@ -5513,25 +5513,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.627437207831</v>
@@ -5595,19 +5595,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
-        <v>436.8967109626374</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>1050.793780719526</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>1819.161927111988</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N18" t="n">
-        <v>2623.573505376138</v>
+        <v>1786.860405229007</v>
       </c>
       <c r="O18" t="n">
-        <v>2623.573505376138</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>563.1598612984388</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C19" t="n">
-        <v>394.223678370532</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028587</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,7 +5689,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
         <v>1498.916270557902</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1262.215047063657</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1262.215047063657</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>1262.215047063657</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W19" t="n">
-        <v>972.7978770266959</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X19" t="n">
-        <v>744.8083261286786</v>
+        <v>981.5095496229242</v>
       </c>
       <c r="Y19" t="n">
-        <v>744.8083261286786</v>
+        <v>981.5095496229242</v>
       </c>
     </row>
     <row r="20">
@@ -5750,10 +5750,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5777,13 +5777,13 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028587</v>
+        <v>492.7132215359194</v>
       </c>
       <c r="L21" t="n">
-        <v>711.1141612171748</v>
+        <v>1106.610291292808</v>
       </c>
       <c r="M21" t="n">
-        <v>1479.482307609636</v>
+        <v>1426.94561082251</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.893885873787</v>
+        <v>1771.466266460128</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.893885873787</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P21" t="n">
-        <v>2466.537363487138</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>517.9294177607306</v>
+        <v>507.0827848727881</v>
       </c>
       <c r="C22" t="n">
-        <v>517.9294177607306</v>
+        <v>507.0827848727881</v>
       </c>
       <c r="D22" t="n">
-        <v>517.9294177607306</v>
+        <v>507.0827848727881</v>
       </c>
       <c r="E22" t="n">
-        <v>370.0163241783375</v>
+        <v>359.169691290395</v>
       </c>
       <c r="F22" t="n">
-        <v>223.1263766804269</v>
+        <v>359.169691290395</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028587</v>
@@ -5914,7 +5914,7 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471194</v>
@@ -5941,19 +5941,19 @@
         <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>1245.282084951296</v>
       </c>
       <c r="V22" t="n">
-        <v>1209.787631771461</v>
+        <v>1245.282084951296</v>
       </c>
       <c r="W22" t="n">
-        <v>920.3704617345005</v>
+        <v>955.8649149143356</v>
       </c>
       <c r="X22" t="n">
-        <v>920.3704617345005</v>
+        <v>727.8753640163183</v>
       </c>
       <c r="Y22" t="n">
-        <v>699.5778825909704</v>
+        <v>507.0827848727881</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5963,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805475</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602865</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823795</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619128</v>
@@ -6011,28 +6011,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028587</v>
+        <v>636.1761237414347</v>
       </c>
       <c r="L24" t="n">
-        <v>327.180197328635</v>
+        <v>1250.073193498323</v>
       </c>
       <c r="M24" t="n">
-        <v>1095.548343721097</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N24" t="n">
-        <v>1559.410052240715</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>573.2461374003682</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C25" t="n">
-        <v>404.3099544724612</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D25" t="n">
-        <v>254.1933150601254</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="E25" t="n">
-        <v>254.1933150601254</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>254.1933150601254</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028587</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473456</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473456</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>1298.996260473456</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V25" t="n">
-        <v>1044.311772267569</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W25" t="n">
-        <v>754.8946022306079</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="X25" t="n">
-        <v>754.8946022306079</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="Y25" t="n">
-        <v>754.8946022306079</v>
+        <v>789.0750425434831</v>
       </c>
     </row>
     <row r="26">
@@ -6206,34 +6206,34 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6242,7 +6242,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L27" t="n">
-        <v>327.180197328635</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M27" t="n">
-        <v>647.5155168583368</v>
+        <v>1387.227105931296</v>
       </c>
       <c r="N27" t="n">
-        <v>1451.927095122488</v>
+        <v>2191.638684195447</v>
       </c>
       <c r="O27" t="n">
-        <v>2121.390856425147</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>816.3222213695503</v>
+        <v>731.6365520183392</v>
       </c>
       <c r="C28" t="n">
-        <v>816.3222213695503</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="D28" t="n">
-        <v>666.2055819572146</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E28" t="n">
-        <v>527.3450129705745</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705745</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6403,31 +6403,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V28" t="n">
-        <v>1044.311772267568</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W28" t="n">
-        <v>1044.311772267568</v>
+        <v>1362.067146890126</v>
       </c>
       <c r="X28" t="n">
-        <v>816.3222213695503</v>
+        <v>1134.077595992109</v>
       </c>
       <c r="Y28" t="n">
-        <v>816.3222213695503</v>
+        <v>913.2850168485789</v>
       </c>
     </row>
     <row r="29">
@@ -6440,16 +6440,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6458,55 +6458,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>327.180197328635</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>1095.548343721096</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
-        <v>1785.124911043099</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>2033.878325127062</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>662.8712180401477</v>
+        <v>472.9363657332776</v>
       </c>
       <c r="C31" t="n">
-        <v>549.6959003936117</v>
+        <v>359.7610480867414</v>
       </c>
       <c r="D31" t="n">
-        <v>455.3401262626469</v>
+        <v>265.4052739557764</v>
       </c>
       <c r="E31" t="n">
-        <v>363.1878979616247</v>
+        <v>265.4052739557764</v>
       </c>
       <c r="F31" t="n">
-        <v>272.0588157450852</v>
+        <v>265.4052739557764</v>
       </c>
       <c r="G31" t="n">
-        <v>159.6443593462763</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028586</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667513</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962056</v>
+        <v>997.6688721962048</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056075</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252999</v>
+        <v>1770.056615875254</v>
       </c>
       <c r="T31" t="n">
-        <v>1791.966918252999</v>
+        <v>1602.03206594613</v>
       </c>
       <c r="U31" t="n">
-        <v>1558.599144747928</v>
+        <v>1368.664292441059</v>
       </c>
       <c r="V31" t="n">
-        <v>1359.675521823412</v>
+        <v>1169.740669516543</v>
       </c>
       <c r="W31" t="n">
-        <v>1126.019217067822</v>
+        <v>936.0843647609529</v>
       </c>
       <c r="X31" t="n">
-        <v>953.7905314511758</v>
+        <v>763.8556791443062</v>
       </c>
       <c r="Y31" t="n">
-        <v>788.7588175890165</v>
+        <v>598.8239652821467</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,19 +6689,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,7 +6710,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643324</v>
@@ -6725,25 +6725,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6786,10 +6786,10 @@
         <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>2030.299435654558</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N33" t="n">
-        <v>2374.820091292176</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,10 +6856,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6868,40 +6868,40 @@
         <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010311</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6914,28 +6914,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514085</v>
@@ -6962,22 +6962,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7023,13 +7023,13 @@
         <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>1608.660951743751</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N36" t="n">
-        <v>1953.181607381369</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
         <v>2623.573505376138</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
         <v>478.0475988506727</v>
@@ -7081,34 +7081,34 @@
         <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
         <v>1932.236826184156</v>
@@ -7138,7 +7138,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G38" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>222.5746515181233</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>836.471721275012</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1156.807040804714</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N39" t="n">
-        <v>1501.327696442332</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7330,28 +7330,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045206</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7415,13 +7415,13 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7454,7 +7454,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>323.6581146605669</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N42" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7552,28 +7552,28 @@
         <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504509</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.931591798297</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7634,10 +7634,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
@@ -7646,13 +7646,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7673,10 +7673,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>323.6581146605669</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7810,31 +7810,31 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025263</v>
@@ -7843,13 +7843,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9009,7 +9009,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9255,10 +9255,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9492,16 +9492,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9732,13 +9732,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9969,13 +9969,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10203,16 +10203,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10440,7 +10440,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -10449,7 +10449,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10677,16 +10677,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10914,16 +10914,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11139,28 +11139,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>370.8623401849285</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,28 +11376,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>370.8623401849285</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>27.22654370589095</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>100.2848170397956</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>71.47311202745766</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>35.74324678262377</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>78.59331985064364</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,13 +23896,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23938,10 +23938,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>185.1341597826892</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>41.84337609543794</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>35.13950864803697</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>102.6099133959127</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>11.08710709953655</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24415,22 +24415,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583893</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>8.961999349795434</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -24658,16 +24658,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>151.0423659054926</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801219</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437426</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>31.90757653184839</v>
+        <v>93.71057173897914</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357148</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752356</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>33.0698964212701</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>369468.7964389272</v>
+        <v>369468.7964389273</v>
       </c>
       <c r="C2" t="n">
         <v>369468.7964389274</v>
       </c>
       <c r="D2" t="n">
-        <v>369468.7964389272</v>
+        <v>369468.7964389274</v>
       </c>
       <c r="E2" t="n">
+        <v>351926.1537639379</v>
+      </c>
+      <c r="F2" t="n">
         <v>351926.1537639378</v>
-      </c>
-      <c r="F2" t="n">
-        <v>351926.1537639379</v>
       </c>
       <c r="G2" t="n">
         <v>351926.1537639379</v>
       </c>
       <c r="H2" t="n">
-        <v>351926.1537639378</v>
+        <v>351926.1537639379</v>
       </c>
       <c r="I2" t="n">
         <v>351926.1537639378</v>
@@ -26347,13 +26347,13 @@
         <v>369468.7964389281</v>
       </c>
       <c r="N2" t="n">
-        <v>369468.7964389282</v>
+        <v>369468.7964389281</v>
       </c>
       <c r="O2" t="n">
         <v>369468.7964389281</v>
       </c>
       <c r="P2" t="n">
-        <v>369468.7964389282</v>
+        <v>369468.7964389281</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.256805717275711e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925925</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284576</v>
+        <v>44162.60530284559</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086674</v>
+        <v>10342.90680086692</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284577</v>
+        <v>44162.60530284559</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26424,28 +26424,28 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758862</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
+        <v>787.7936905758411</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758436</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758437</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="G4" t="n">
-        <v>787.7936905758437</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758477</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758697</v>
-      </c>
       <c r="J4" t="n">
-        <v>787.7936905758824</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477246</v>
+        <v>18952.41620477235</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189631</v>
       </c>
       <c r="M4" t="n">
         <v>23206.58093189634</v>
@@ -26454,7 +26454,7 @@
         <v>23206.58093189635</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189637</v>
       </c>
       <c r="P4" t="n">
         <v>23206.58093189634</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,10 +26476,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26491,7 +26491,7 @@
         <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
@@ -26500,10 +26500,10 @@
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-442417.3000196457</v>
+        <v>-442417.3000196458</v>
       </c>
       <c r="C6" t="n">
         <v>147550.5791948988</v>
       </c>
       <c r="D6" t="n">
-        <v>147550.5791948987</v>
+        <v>147550.5791948988</v>
       </c>
       <c r="E6" t="n">
-        <v>-266009.0023522509</v>
+        <v>-266106.461478223</v>
       </c>
       <c r="F6" t="n">
-        <v>259151.0341246454</v>
+        <v>259053.5749986731</v>
       </c>
       <c r="G6" t="n">
-        <v>259151.0341246454</v>
+        <v>259053.5749986732</v>
       </c>
       <c r="H6" t="n">
-        <v>259151.0341246451</v>
+        <v>259053.5749986732</v>
       </c>
       <c r="I6" t="n">
-        <v>259151.0341246452</v>
+        <v>259053.5749986731</v>
       </c>
       <c r="J6" t="n">
-        <v>82727.81493205288</v>
+        <v>82630.35580608029</v>
       </c>
       <c r="K6" t="n">
-        <v>206396.6935729013</v>
+        <v>206378.1998349673</v>
       </c>
       <c r="L6" t="n">
-        <v>238204.2028861396</v>
+        <v>238204.2028861394</v>
       </c>
       <c r="M6" t="n">
-        <v>113746.0944531693</v>
+        <v>113746.0944531692</v>
       </c>
       <c r="N6" t="n">
         <v>248547.1096870064</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26735,40 +26735,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108343</v>
+        <v>12.92863350108365</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,10 +26975,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,31 +27018,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>540.9263704990177</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>540.9263704990175</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545554</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>52.77024281873901</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>32.87844501345415</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>64.44757301799065</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>112.0008643834828</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,13 +27594,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>288.1020999926963</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>104.5209220446449</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>104.9851721023712</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>83.12091415361536</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>198.896656759044</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>115.1403380708305</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28014,13 +28014,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>109.6475322065276</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>24.71296824968107</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="C31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="D31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="E31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="F31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="G31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="H31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="J31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="K31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="M31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="N31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="O31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="P31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="R31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="S31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="T31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="U31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="V31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="W31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="X31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,22 +31355,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>132.9984977071298</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31616,25 +31616,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>177.5954266578339</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31847,28 +31847,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>286.6638531320885</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>245.2687781552865</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961197</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130445</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -32081,16 +32081,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>98.44906376001131</v>
+        <v>330.735029283596</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -32102,10 +32102,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,10 +32163,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,22 +32315,22 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>216.4869287318324</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>68.34248921961813</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
         <v>34.18755300444946</v>
@@ -32482,13 +32482,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647497</v>
@@ -32503,7 +32503,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,37 +32549,37 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>104.8660281469027</v>
       </c>
       <c r="L21" t="n">
         <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.52685189461661</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,10 +32619,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
         <v>45.03122946298631</v>
@@ -32631,10 +32631,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
         <v>234.725964217132</v>
@@ -32643,7 +32643,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,13 +32655,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304443</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565522</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>249.7780505767162</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724849</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>120.5465180626259</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710958</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361494</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171321</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -33032,28 +33032,28 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>185.03172434013</v>
       </c>
       <c r="P27" t="n">
-        <v>252.6713260851628</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,37 +33260,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>348.5413249337222</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,16 +33427,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927201</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>425.8974584957645</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33521,13 +33521,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,13 +33743,13 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O36" t="n">
-        <v>241.4090972701572</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -33758,13 +33758,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33971,31 +33971,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O39" t="n">
-        <v>58.66904626099313</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34208,28 +34208,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34366,7 +34366,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34445,28 +34445,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>428.8615014901189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,19 +35495,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>634.6645153923088</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>429.7571393808934</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415071</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,16 +35729,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>349.7151385922964</v>
+        <v>582.001104115881</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>343.110726770052</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>319.6085640519032</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36130,19 +36130,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>231.4898261851224</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004663</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.6223655444442</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36285,7 +36285,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056037</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081122</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>376.4018486149358</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004665</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>468.5471803228461</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>525.556183571462</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36522,10 +36522,10 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>436.2977991724151</v>
       </c>
       <c r="P27" t="n">
-        <v>437.1596873107698</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>696.5419871939424</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412272</v>
+        <v>67.71102679412252</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043195</v>
+        <v>94.42895660043175</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,16 +37069,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
         <v>713.1546070951472</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>749.4684883237461</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37306,19 +37306,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,16 +37391,16 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O36" t="n">
-        <v>492.6751721024423</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O39" t="n">
-        <v>309.9351210932782</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>228.7283062629101</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>228.7283062629101</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,10 +38184,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
